--- a/py27_api_test/data/apicases.xlsx
+++ b/py27_api_test/data/apicases.xlsx
@@ -3,23 +3,31 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="936" visibility="visible" windowHeight="8415" windowWidth="19035" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="936" visibility="visible" windowHeight="7967" windowWidth="18468"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="login" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="recharge" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="withdraw" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="add" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="audit" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="125725" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="7">
+  <numFmts count="4">
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
+    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
+    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
+    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -28,16 +36,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="等线"/>
       <charset val="134"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <sz val="11"/>
     </font>
     <font>
       <name val="等线"/>
@@ -45,13 +58,6 @@
       <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
       <name val="等线"/>
@@ -63,20 +69,336 @@
     </font>
     <font>
       <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
       <charset val="134"/>
-      <sz val="9"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -110,30 +432,325 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="14" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="21" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="24" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="24" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="10" fillId="32" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="8" name="超链接" xfId="1"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -391,7 +1008,6 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -407,16 +1023,16 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="7.625"/>
+    <col customWidth="1" max="1" min="1" width="7.66666666666667"/>
     <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="20.875"/>
-    <col customWidth="1" max="4" min="4" width="8.375"/>
-    <col customWidth="1" max="5" min="5" width="17.5"/>
-    <col customWidth="1" max="6" min="6" width="36.625"/>
+    <col customWidth="1" max="3" min="3" width="20.8888888888889"/>
+    <col customWidth="1" max="4" min="4" width="8.33333333333333"/>
+    <col customWidth="1" max="5" min="5" width="17.5555555555556"/>
+    <col customWidth="1" max="6" min="6" width="36.6666666666667"/>
     <col customWidth="1" max="7" min="7" width="21"/>
-    <col customWidth="1" max="8" min="8" width="6.375"/>
+    <col customWidth="1" max="8" min="8" width="6.33333333333333"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -485,7 +1101,7 @@
           <t>POST</t>
         </is>
       </c>
-      <c r="E2" s="7" t="inlineStr">
+      <c r="E2" s="9" t="inlineStr">
         <is>
           <t>http://api.lemonban.com/futureloan/member/register</t>
         </is>
@@ -565,7 +1181,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="C4" s="12" t="inlineStr">
         <is>
           <t>不输入手机号</t>
         </is>
@@ -605,7 +1221,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr">
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t>手机号长度10位</t>
         </is>
@@ -645,7 +1261,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="12" t="inlineStr">
         <is>
           <t>手机号长度12位</t>
         </is>
@@ -685,7 +1301,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="C7" s="12" t="inlineStr">
         <is>
           <t>手机号含有非法字符</t>
         </is>
@@ -725,7 +1341,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr">
+      <c r="C8" s="12" t="inlineStr">
         <is>
           <t>已注册过的手机号</t>
         </is>
@@ -765,7 +1381,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr">
+      <c r="C9" s="12" t="inlineStr">
         <is>
           <t>密码7位</t>
         </is>
@@ -805,7 +1421,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr">
+      <c r="C10" s="12" t="inlineStr">
         <is>
           <t>密码17位</t>
         </is>
@@ -845,7 +1461,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
+      <c r="C11" s="12" t="inlineStr">
         <is>
           <t>不输入密码</t>
         </is>
@@ -877,20 +1493,20 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" s="10" t="inlineStr">
         <is>
           <t>register</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C12" s="11" t="inlineStr">
         <is>
           <t>注册名11位</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="D12" s="10" t="inlineStr">
         <is>
           <t>POST</t>
         </is>
@@ -900,12 +1516,12 @@
           <t>http://api.lemonban.com/futureloan/member/register</t>
         </is>
       </c>
-      <c r="F12" s="3" t="inlineStr">
+      <c r="F12" s="7" t="inlineStr">
         <is>
           <t>{"mobile_phone":"13303007856","pwd":"12345678","type":1,"reg_name":"12345678909991"}</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
+      <c r="G12" s="10" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"用户昵称长度超过10位"}</t>
         </is>
@@ -925,7 +1541,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="C13" s="9" t="inlineStr">
+      <c r="C13" s="12" t="inlineStr">
         <is>
           <t>类型输入非0，1内容</t>
         </is>
@@ -965,7 +1581,7 @@
           <t>register</t>
         </is>
       </c>
-      <c r="C14" s="9" t="inlineStr">
+      <c r="C14" s="12" t="inlineStr">
         <is>
           <t>不输入类型</t>
         </is>
@@ -1003,7 +1619,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink display="http://api.lemonban.com/futureloan/member/register" ref="E2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1022,13 +1638,13 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.87962962962963" defaultRowHeight="13.8" outlineLevelRow="6"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="16.875"/>
+    <col customWidth="1" max="3" min="3" width="16.8796296296296"/>
     <col customWidth="1" max="4" min="4" width="7.5"/>
-    <col customWidth="1" max="5" min="5" width="14.375"/>
-    <col customWidth="1" max="6" min="6" width="32.625"/>
-    <col customWidth="1" max="7" min="7" width="38.375"/>
+    <col customWidth="1" max="5" min="5" width="14.3796296296296"/>
+    <col customWidth="1" max="6" min="6" width="32.6666666666667"/>
+    <col customWidth="1" max="7" min="7" width="38.3333333333333"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1092,7 +1708,7 @@
           <t>post</t>
         </is>
       </c>
-      <c r="E2" s="7" t="inlineStr">
+      <c r="E2" s="9" t="inlineStr">
         <is>
           <t>http://api.lemonban.com/futureloan/member/login</t>
         </is>
@@ -1113,21 +1729,21 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="3" s="3">
-      <c r="A3" s="2" t="n">
+    <row customFormat="1" r="3" s="7">
+      <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="10" t="inlineStr">
         <is>
           <t>手机号为空</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="10" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -1137,12 +1753,12 @@
           <t>http://api.lemonban.com/futureloan/member/login</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="10" t="inlineStr">
         <is>
           <t>{"pwd":"12345678"}</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="G3" s="7" t="inlineStr">
         <is>
           <t>{'code': 1, 'msg': '手机号码为空'}</t>
         </is>
@@ -1153,21 +1769,21 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" r="4" s="3">
-      <c r="A4" s="2" t="n">
+    <row customFormat="1" r="4" s="7">
+      <c r="A4" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>login</t>
         </is>
       </c>
-      <c r="C4" s="8" t="inlineStr">
+      <c r="C4" s="11" t="inlineStr">
         <is>
           <t>密码为空</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="D4" s="10" t="inlineStr">
         <is>
           <t>post</t>
         </is>
@@ -1177,12 +1793,12 @@
           <t>http://api.lemonban.com/futureloan/member/login</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="F4" s="10" t="inlineStr">
         <is>
           <t>{"mobile_phone":"15512345678",}</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G4" s="7" t="inlineStr">
         <is>
           <t>{'code': 1, 'msg': '密码为空'}</t>
         </is>
@@ -1202,7 +1818,7 @@
           <t>login</t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr">
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t>手机号未注册</t>
         </is>
@@ -1242,7 +1858,7 @@
           <t>login</t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
+      <c r="C6" s="12" t="inlineStr">
         <is>
           <t>密码错误</t>
         </is>
@@ -1282,7 +1898,7 @@
           <t>login</t>
         </is>
       </c>
-      <c r="C7" s="9" t="inlineStr">
+      <c r="C7" s="12" t="inlineStr">
         <is>
           <t>手机号格式错误</t>
         </is>
@@ -1315,8 +1931,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
-    <hyperlink ref="E2" tooltip="http://api.lemonban.com/futureloan/member/login" r:id="rId2"/>
+    <hyperlink display="interface" ref="B1" r:id="rId1"/>
+    <hyperlink display="http://api.lemonban.com/futureloan/member/login" ref="E2" tooltip="http://api.lemonban.com/futureloan/member/login" r:id="rId2"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1330,20 +1946,20 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="7.625"/>
-    <col customWidth="1" max="2" min="2" width="9.125"/>
-    <col customWidth="1" max="3" min="3" width="23.125"/>
-    <col customWidth="1" max="4" min="4" width="8.375"/>
-    <col customWidth="1" max="5" min="5" width="18.5"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="52.75"/>
-    <col customWidth="1" max="7" min="7" width="19.625"/>
-    <col customWidth="1" max="8" min="8" width="7.625"/>
+    <col customWidth="1" max="1" min="1" width="7.66666666666667"/>
+    <col customWidth="1" max="2" min="2" width="9.111111111111111"/>
+    <col customWidth="1" max="3" min="3" width="23.1111111111111"/>
+    <col customWidth="1" max="4" min="4" width="8.33333333333333"/>
+    <col customWidth="1" max="5" min="5" width="18.5555555555556"/>
+    <col customWidth="1" max="6" min="6" width="31.1111111111111"/>
+    <col customWidth="1" max="7" min="7" width="19.6666666666667"/>
+    <col customWidth="1" max="8" min="8" width="7.66666666666667"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1393,7 +2009,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.45" r="2">
+    <row customHeight="1" ht="14.4" r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -1402,7 +2018,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C2" s="6" t="inlineStr">
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>充值成功-整数</t>
         </is>
@@ -1417,7 +2033,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600}</t>
         </is>
@@ -1427,7 +2043,7 @@
           <t>{"code":0,"msg":"OK"}</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="H2" s="7" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1438,7 +2054,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.45" r="3">
+    <row customHeight="1" ht="14.4" r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -1447,7 +2063,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>充值成功-1位小数</t>
         </is>
@@ -1462,7 +2078,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F3" s="6" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600.1}</t>
         </is>
@@ -1472,7 +2088,7 @@
           <t>{"code":0,"msg":"OK"}</t>
         </is>
       </c>
-      <c r="H3" s="3" t="inlineStr">
+      <c r="H3" s="7" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1483,7 +2099,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.45" r="4">
+    <row customHeight="1" ht="14.4" r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -1492,7 +2108,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>充值成功-2位小数</t>
         </is>
@@ -1507,7 +2123,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":600.22}</t>
         </is>
@@ -1517,7 +2133,7 @@
           <t>{"code":0,"msg":"OK"}</t>
         </is>
       </c>
-      <c r="H4" s="3" t="inlineStr">
+      <c r="H4" s="7" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1528,7 +2144,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.45" r="5">
+    <row customHeight="1" ht="14.4" r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
@@ -1537,7 +2153,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="C5" s="2" t="inlineStr">
         <is>
           <t>充值成功-50万</t>
         </is>
@@ -1552,7 +2168,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F5" s="6" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount":500000}</t>
         </is>
@@ -1562,7 +2178,7 @@
           <t>{"code":0,"msg":"OK"}</t>
         </is>
       </c>
-      <c r="H5" s="3" t="inlineStr">
+      <c r="H5" s="7" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1573,7 +2189,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.45" r="6">
+    <row customHeight="1" ht="14.4" r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
@@ -1582,7 +2198,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="2" t="inlineStr">
         <is>
           <t>会员id为空</t>
         </is>
@@ -1597,7 +2213,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>{"amount":600}</t>
         </is>
@@ -1607,13 +2223,13 @@
           <t>{"code":1,"msg":"用户id为空"}</t>
         </is>
       </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="7">
+      <c r="H6" s="7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
@@ -1622,7 +2238,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C7" s="2" t="inlineStr">
         <is>
           <t>id不是当前登录的用户</t>
         </is>
@@ -1637,7 +2253,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F7" s="6" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>{"member_id": 98989898,"amount":600}</t>
         </is>
@@ -1647,253 +2263,253 @@
           <t>{"code":1007,"msg":"无权限访问，请检查参数"}</t>
         </is>
       </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="14.45" r="8" s="3">
-      <c r="A8" s="3" t="n">
+      <c r="H7" s="7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="14.4" r="8" s="7">
+      <c r="A8" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="7" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>会员id为字符串</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="6" t="inlineStr">
         <is>
           <t>{"member_id": "#member_id#","amount":600}</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G8" s="7" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"数字格式化异常"}</t>
         </is>
       </c>
-      <c r="H8" s="3" t="inlineStr">
+      <c r="H8" s="7" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.45" r="9">
-      <c r="A9" s="3" t="n">
+    <row customHeight="1" ht="14.4" r="9">
+      <c r="A9" s="7" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
+      <c r="B9" s="7" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
         <is>
           <t>会员id为小数</t>
         </is>
       </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="6" t="inlineStr">
         <is>
           <t>{"member_id": float(#member_id#), "amount":600}</t>
         </is>
       </c>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G9" s="7" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"数字格式化异常"}</t>
         </is>
       </c>
-      <c r="H9" s="3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="10">
-      <c r="A10" s="3" t="n">
+      <c r="H9" s="7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="10">
+      <c r="A10" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="inlineStr">
+      <c r="B10" s="7" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
         <is>
           <t>充值金额为0</t>
         </is>
       </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="6" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 0}</t>
         </is>
       </c>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="G10" s="7" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"金额必须大于0并且小于或者等于500000"}</t>
         </is>
       </c>
-      <c r="H10" s="3" t="inlineStr">
+      <c r="H10" s="7" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.45" r="11">
-      <c r="A11" s="3" t="n">
+    <row customHeight="1" ht="14.4" r="11">
+      <c r="A11" s="7" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
         <is>
           <t>充值金额为负数</t>
         </is>
       </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": -600}</t>
         </is>
       </c>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="G11" s="7" t="inlineStr">
         <is>
           <t>{'code': 2, 'msg': '余额必须大于0并且小于或者等于500000'}</t>
         </is>
       </c>
-      <c r="H11" s="3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="14.45" r="12" s="3">
-      <c r="A12" s="3" t="n">
+      <c r="H11" s="7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" customHeight="1" ht="14.4" r="12" s="7">
+      <c r="A12" s="7" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B12" s="7" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
         <is>
           <t>充值金额为空</t>
         </is>
       </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
+      <c r="F12" s="6" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#}</t>
         </is>
       </c>
-      <c r="G12" s="3" t="inlineStr">
+      <c r="G12" s="7" t="inlineStr">
         <is>
           <t>{"code":1,"msg":"充值金额为空"}</t>
         </is>
       </c>
-      <c r="H12" s="3" t="inlineStr">
+      <c r="H12" s="7" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.45" r="13">
-      <c r="A13" s="3" t="n">
+    <row customHeight="1" ht="14.4" r="13">
+      <c r="A13" s="7" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="inlineStr">
+      <c r="B13" s="7" t="inlineStr">
         <is>
           <t>recharge</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
         <is>
           <t>充值金额-3位小数</t>
         </is>
       </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="D13" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr">
         <is>
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="6" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 600.222}</t>
         </is>
       </c>
-      <c r="G13" s="3" t="inlineStr">
+      <c r="G13" s="7" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"金额小数超过两位"}</t>
         </is>
       </c>
-      <c r="H13" s="3" t="inlineStr">
+      <c r="H13" s="7" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.45" r="14">
+    <row customHeight="1" ht="14.4" r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
@@ -1902,7 +2518,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr">
         <is>
           <t>充值金额-大于50万</t>
         </is>
@@ -1917,7 +2533,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F14" s="6" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": 500001}</t>
         </is>
@@ -1927,13 +2543,13 @@
           <t>{"code":2,"msg":"金额必须大于0并且小于或者等于500000"}</t>
         </is>
       </c>
-      <c r="H14" s="3" t="inlineStr">
+      <c r="H14" s="7" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.45" r="15">
+    <row customHeight="1" ht="14.4" r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
@@ -1942,7 +2558,7 @@
           <t>recharge</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr">
+      <c r="C15" s="2" t="inlineStr">
         <is>
           <t>充值金额-非数字</t>
         </is>
@@ -1957,7 +2573,7 @@
           <t>/member/recharge</t>
         </is>
       </c>
-      <c r="F15" s="6" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": "5万"}</t>
         </is>
@@ -1967,7 +2583,7 @@
           <t>{"code":2,"msg":"数字格式化异常"}</t>
         </is>
       </c>
-      <c r="H15" s="3" t="inlineStr">
+      <c r="H15" s="7" t="inlineStr">
         <is>
           <t>通过</t>
         </is>
@@ -1984,23 +2600,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="7.625"/>
-    <col customWidth="1" max="2" min="2" width="9.5"/>
-    <col customWidth="1" max="3" min="3" width="19.75"/>
-    <col customWidth="1" max="4" min="4" width="8.375"/>
-    <col customWidth="1" max="5" min="5" width="19.25"/>
-    <col customWidth="1" max="6" min="6" width="50.125"/>
-    <col customWidth="1" max="7" min="7" width="57.75"/>
-    <col customWidth="1" max="8" min="8" width="7.625"/>
-    <col customWidth="1" max="9" min="9" width="9.5"/>
+    <col customWidth="1" max="1" min="1" width="7.66666666666667"/>
+    <col customWidth="1" max="2" min="2" width="9.555555555555561"/>
+    <col customWidth="1" max="3" min="3" width="19.7777777777778"/>
+    <col customWidth="1" max="4" min="4" width="8.33333333333333"/>
+    <col customWidth="1" max="5" min="5" width="19.2222222222222"/>
+    <col customWidth="1" max="6" min="6" width="50.1111111111111"/>
+    <col customWidth="1" max="7" min="7" width="57.7777777777778"/>
+    <col customWidth="1" max="8" min="8" width="7.66666666666667"/>
+    <col customWidth="1" max="9" min="9" width="9.555555555555561"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2050,38 +2666,38 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.45" r="2">
-      <c r="A2" s="1" t="n">
+    <row customHeight="1" ht="14.4" r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>login</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>登录成功</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>/member/login</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>{"mobile_phone":"#phone#","pwd":"#pwd#"}</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>{'code': 0, 'msg': 'OK'}</t>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>withdraw</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>提现成功-整数</t>
+        </is>
+      </c>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" s="7" t="inlineStr">
+        <is>
+          <t>/member/withdraw</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":600}</t>
+        </is>
+      </c>
+      <c r="G2" s="7" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -2090,7 +2706,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.45" r="3">
+    <row customHeight="1" ht="14.4" r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -2099,27 +2715,27 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>提现成功-整数</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>提现成功-1位小数</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount":600}</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="F3" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":600.1}</t>
+        </is>
+      </c>
+      <c r="G3" s="7" t="inlineStr">
         <is>
           <t>{"code":0,"msg":"OK"}</t>
         </is>
@@ -2130,7 +2746,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.45" r="4">
+    <row customHeight="1" ht="14.4" r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -2139,27 +2755,27 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>提现成功-1位小数</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>提现成功-2位小数</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E4" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount":600.1}</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="F4" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":600.22}</t>
+        </is>
+      </c>
+      <c r="G4" s="7" t="inlineStr">
         <is>
           <t>{"code":0,"msg":"OK"}</t>
         </is>
@@ -2170,7 +2786,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.45" r="5">
+    <row customHeight="1" ht="14.4" r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
@@ -2179,27 +2795,27 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>提现成功-2位小数</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>提现成功-50万</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount":600.22}</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="F5" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount":500000}</t>
+        </is>
+      </c>
+      <c r="G5" s="7" t="inlineStr">
         <is>
           <t>{"code":0,"msg":"OK"}</t>
         </is>
@@ -2210,7 +2826,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.45" r="6">
+    <row customHeight="1" ht="14.4" r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
@@ -2219,29 +2835,29 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>提现成功-50万</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
+        <is>
+          <t>会员id为空</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount":500000}</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>{"code":0,"msg":"OK"}</t>
+      <c r="F6" s="6" t="inlineStr">
+        <is>
+          <t>{"amount":600}</t>
+        </is>
+      </c>
+      <c r="G6" s="7" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"会员id为空"}</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -2250,7 +2866,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.45" r="7">
+    <row customHeight="1" ht="14.4" r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
@@ -2259,29 +2875,29 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>会员id为空</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>会员id不存在</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>{"amount":600}</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>{"code":1,"msg":"会员id为空"}</t>
+      <c r="F7" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id": "98989898","amount":600}</t>
+        </is>
+      </c>
+      <c r="G7" s="7" t="inlineStr">
+        <is>
+          <t>{"code": 2, "msg": "会员不存在"}</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -2290,7 +2906,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.45" r="8">
+    <row customHeight="1" ht="14.4" r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
@@ -2299,38 +2915,38 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>会员id不存在</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>会员id为字符串</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>{"member_id": "98989898","amount":600}</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>{"code": 2, "msg": "会员不存在"}</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="9">
+      <c r="F8" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id": "#member_id#","amount":600}</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"数字格式化异常"}</t>
+        </is>
+      </c>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
@@ -2339,38 +2955,38 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>会员id为字符串</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="inlineStr">
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>会员id为小数</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>{"member_id": "#member_id#","amount":600}</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>{"code":2,"msg":"数字格式化异常"}</t>
-        </is>
-      </c>
-      <c r="H9" s="5" t="inlineStr">
-        <is>
-          <t>未通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="10">
+      <c r="F9" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id": 1.0, "amount":600}</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"数值参数格式不正确"}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="10">
       <c r="A10" t="n">
         <v>9</v>
       </c>
@@ -2379,38 +2995,38 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>会员id为小数</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="inlineStr">
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>提现金额为0</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>{"member_id": 1.0, "amount":600}</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>{"code":2,"msg":"数值参数格式不正确"}</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="11">
+      <c r="F10" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": 0}</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
+        </is>
+      </c>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
@@ -2419,38 +3035,38 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>提现金额为0</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="C11" s="6" t="inlineStr">
+        <is>
+          <t>提现金额为负数</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount": 0}</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
-        </is>
-      </c>
-      <c r="H11" s="5" t="inlineStr">
+      <c r="F11" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": -600}</t>
+        </is>
+      </c>
+      <c r="G11" s="7" t="inlineStr">
+        <is>
+          <t>{'code': 2, 'msg': '余额必须大于0并且小于或者等于500000'}</t>
+        </is>
+      </c>
+      <c r="H11" s="8" t="inlineStr">
         <is>
           <t>未通过</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.45" r="12">
+    <row customHeight="1" ht="14.4" r="12">
       <c r="A12" t="n">
         <v>11</v>
       </c>
@@ -2459,38 +3075,38 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>提现金额为负数</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>提现金额为空</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount": -600}</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>{'code': 2, 'msg': '余额必须大于0并且小于或者等于500000'}</t>
-        </is>
-      </c>
-      <c r="H12" s="5" t="inlineStr">
-        <is>
-          <t>未通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="13">
+      <c r="F12" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#}</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"余额为空"}</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
@@ -2499,29 +3115,29 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>提现金额为空</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>提现金额-3位小数</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#}</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>{"code":1,"msg":"余额为空"}</t>
+      <c r="F13" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": 600.222}</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"余额小数超过两位"}</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2530,7 +3146,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.45" r="14">
+    <row customHeight="1" ht="14.4" r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
@@ -2539,38 +3155,38 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>提现金额-3位小数</t>
-        </is>
-      </c>
-      <c r="D14" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>提现金额-大于50万</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount": 600.222}</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>{"code":2,"msg":"余额小数超过两位"}</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="15">
+      <c r="F14" s="6" t="inlineStr">
+        <is>
+          <t>{"member_id": #member_id#,"amount": 500001}</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
+        </is>
+      </c>
+      <c r="H14" s="8" t="inlineStr">
+        <is>
+          <t>未通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
@@ -2579,86 +3195,899 @@
           <t>withdraw</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>提现金额-大于50万</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="C15" s="6" t="inlineStr">
+        <is>
+          <t>提现金额-非数字</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>{"member_id": #member_id#,"amount": 500001}</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
-        </is>
-      </c>
-      <c r="H15" s="5" t="inlineStr">
-        <is>
-          <t>未通过</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.45" r="16">
-      <c r="A16" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>withdraw</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>提现金额-非数字</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>post</t>
-        </is>
-      </c>
-      <c r="E16" s="3" t="inlineStr">
-        <is>
-          <t>/member/withdraw</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F15" s="6" t="inlineStr">
         <is>
           <t>{"member_id": #member_id#,"amount": "5万"}</t>
         </is>
       </c>
-      <c r="G16" s="3" t="inlineStr">
+      <c r="G15" s="7" t="inlineStr">
         <is>
           <t>{"code":2,"msg":"数值参数格式不正确"}</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="C17" s="3" t="n"/>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="3" t="n"/>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
+  <cols>
+    <col customWidth="1" max="3" min="3" width="26.2222222222222"/>
+    <col customWidth="1" max="5" min="5" width="13.7777777777778"/>
+    <col customWidth="1" max="6" min="6" width="43.3333333333333"/>
+    <col customWidth="1" max="7" min="7" width="24.962962962963"/>
+    <col customWidth="1" max="8" min="8" width="7.17592592592593"/>
+    <col customWidth="1" max="9" min="9" width="12.287037037037"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>加标成功</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SELECT * FROM  futureloan.loan WHERE member_id=#member_id#;</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>加标失败—借款人id为空</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>{"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"用户id为空"}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>加标失败—标题为空</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"标题为空"}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>加标失败—借款金额为空</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"借钱实现财富自由","loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"借款金额为空"}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>加标失败—年利率为空</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"利率为空"}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>加标失败—借款期限为空</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"借款期限为空"}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>加标失败—借款期限类型为空</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"借款日期类型为空"}</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>加标失败—竞标天数为空</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1}</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"竞标期限为空"}</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>加标失败—借款人id不是当前登录用户</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#+1,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{"code":1007,"msg":"无权限访问，请检查参数"}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>加标失败—借款金额为负数</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":-2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"借款金额范围错误"}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>add</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>加标失败—借款金额为小数</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>/loan/add</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":2000.1,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"借款金额范围错误"}</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="F4:I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8" outlineLevelRow="6"/>
+  <cols>
+    <col customWidth="1" max="3" min="3" width="20.6666666666667"/>
+    <col customWidth="1" max="4" min="4" width="16.5555555555556"/>
+    <col customWidth="1" max="5" min="5" width="15"/>
+    <col customWidth="1" max="6" min="6" width="38.7777777777778"/>
+    <col customWidth="1" max="7" min="7" width="28.6666666666667"/>
+    <col customWidth="1" max="8" min="8" width="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>审核通过</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#,"approved_or_not": True}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK","status":2}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>SELECT status FROM  futureloan.loan WHERE id=#loan_id#;</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>审核不通过</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#,"approved_or_not": False}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK","status":5}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SELECT status FROM  futureloan.loan WHERE id=#loan_id#;</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>项目不待审核状态</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>{"loan_id":#pass_loan_id#,"approved_or_not": False}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"code": 2,"msg": "项目不在审核中状态"}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>参数approved_or_not为空</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{ "code": 1,"msg": "approved_or_not为空"}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>项目id为空</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>{"approved_or_not": True}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{ "code": 1,"msg": "项目id为空"}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>audit</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>项目id不存在</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>/loan/audit</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>{"loan_id":#loan_id#+10000,"approved_or_not": True}</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{"code": 2, "msg": "项目不存在"}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/py27_api_test/data/apicases.xlsx
+++ b/py27_api_test/data/apicases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="5" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="936" visibility="visible" windowHeight="7967" windowWidth="18468"/>
+    <workbookView activeTab="8" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="936" visibility="visible" windowHeight="7965" windowWidth="18465" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,21 +13,19 @@
     <sheet name="add" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="audit" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="Sheet3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="update" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="user" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="loans" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
-  </numFmts>
-  <fonts count="24">
+  <numFmts count="0"/>
+  <fonts count="7">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -38,12 +36,14 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="3"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <family val="3"/>
       <sz val="11"/>
     </font>
     <font>
@@ -69,336 +69,20 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -432,249 +116,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="14" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="21" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="24" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="24" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="32" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -694,63 +139,16 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle builtinId="8" name="超链接" xfId="1"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
@@ -1008,6 +406,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1023,16 +422,16 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="7.66666666666667"/>
+    <col customWidth="1" max="1" min="1" width="7.625"/>
     <col customWidth="1" max="2" min="2" width="9"/>
-    <col customWidth="1" max="3" min="3" width="20.8888888888889"/>
-    <col customWidth="1" max="4" min="4" width="8.33333333333333"/>
-    <col customWidth="1" max="5" min="5" width="17.5555555555556"/>
-    <col customWidth="1" max="6" min="6" width="36.6666666666667"/>
+    <col customWidth="1" max="3" min="3" width="20.875"/>
+    <col customWidth="1" max="4" min="4" width="8.375"/>
+    <col customWidth="1" max="5" min="5" width="17.5"/>
+    <col customWidth="1" max="6" min="6" width="36.625"/>
     <col customWidth="1" max="7" min="7" width="21"/>
-    <col customWidth="1" max="8" min="8" width="6.33333333333333"/>
+    <col customWidth="1" max="8" min="8" width="6.375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1619,8 +1018,191 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="http://api.lemonban.com/futureloan/member/register" ref="E2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1"/>
   </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="13"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="7.5"/>
+    <col customWidth="1" max="6" min="6" width="35.625"/>
+    <col customWidth="1" max="7" min="7" width="29.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>loans</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>默认参数</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>/loans</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>loans</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>翻页-6</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>/loans</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>{"pageIndex":6,"pageSize":10}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>loans</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>每页大小-100</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>/loans</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>{"pageIndex":1,"pageSize":100}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
@@ -1638,13 +1220,13 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.87962962962963" defaultRowHeight="13.8" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="16.8796296296296"/>
+    <col customWidth="1" max="3" min="3" width="16.875"/>
     <col customWidth="1" max="4" min="4" width="7.5"/>
-    <col customWidth="1" max="5" min="5" width="14.3796296296296"/>
-    <col customWidth="1" max="6" min="6" width="32.6666666666667"/>
-    <col customWidth="1" max="7" min="7" width="38.3333333333333"/>
+    <col customWidth="1" max="5" min="5" width="14.375"/>
+    <col customWidth="1" max="6" min="6" width="32.625"/>
+    <col customWidth="1" max="7" min="7" width="38.375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1931,8 +1513,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="interface" ref="B1" r:id="rId1"/>
-    <hyperlink display="http://api.lemonban.com/futureloan/member/login" ref="E2" tooltip="http://api.lemonban.com/futureloan/member/login" r:id="rId2"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="E2" tooltip="http://api.lemonban.com/futureloan/member/login" r:id="rId2"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1950,16 +1532,16 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="7.66666666666667"/>
-    <col customWidth="1" max="2" min="2" width="9.111111111111111"/>
-    <col customWidth="1" max="3" min="3" width="23.1111111111111"/>
-    <col customWidth="1" max="4" min="4" width="8.33333333333333"/>
-    <col customWidth="1" max="5" min="5" width="18.5555555555556"/>
-    <col customWidth="1" max="6" min="6" width="31.1111111111111"/>
-    <col customWidth="1" max="7" min="7" width="19.6666666666667"/>
-    <col customWidth="1" max="8" min="8" width="7.66666666666667"/>
+    <col customWidth="1" max="1" min="1" width="7.625"/>
+    <col customWidth="1" max="2" min="2" width="9.125"/>
+    <col customWidth="1" max="3" min="3" width="23.125"/>
+    <col customWidth="1" max="4" min="4" width="8.375"/>
+    <col customWidth="1" max="5" min="5" width="18.5"/>
+    <col customWidth="1" max="6" min="6" width="31.125"/>
+    <col customWidth="1" max="7" min="7" width="19.625"/>
+    <col customWidth="1" max="8" min="8" width="7.625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2009,7 +1591,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="2">
+    <row customHeight="1" ht="14.45" r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -2054,7 +1636,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="3">
+    <row customHeight="1" ht="14.45" r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -2099,7 +1681,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="4">
+    <row customHeight="1" ht="14.45" r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -2144,7 +1726,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="5">
+    <row customHeight="1" ht="14.45" r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
@@ -2189,7 +1771,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="6">
+    <row customHeight="1" ht="14.45" r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
@@ -2229,7 +1811,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="7">
+    <row customHeight="1" ht="14.45" r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
@@ -2269,7 +1851,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="14.4" r="8" s="7">
+    <row customFormat="1" customHeight="1" ht="14.45" r="8" s="7">
       <c r="A8" s="7" t="n">
         <v>7</v>
       </c>
@@ -2309,7 +1891,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="9">
+    <row customHeight="1" ht="14.45" r="9">
       <c r="A9" s="7" t="n">
         <v>8</v>
       </c>
@@ -2349,7 +1931,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="10">
+    <row customHeight="1" ht="14.45" r="10">
       <c r="A10" s="7" t="n">
         <v>9</v>
       </c>
@@ -2389,7 +1971,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="11">
+    <row customHeight="1" ht="14.45" r="11">
       <c r="A11" s="7" t="n">
         <v>10</v>
       </c>
@@ -2429,7 +2011,7 @@
         </is>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="14.4" r="12" s="7">
+    <row customFormat="1" customHeight="1" ht="14.45" r="12" s="7">
       <c r="A12" s="7" t="n">
         <v>11</v>
       </c>
@@ -2469,7 +2051,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="13">
+    <row customHeight="1" ht="14.45" r="13">
       <c r="A13" s="7" t="n">
         <v>12</v>
       </c>
@@ -2509,7 +2091,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="14">
+    <row customHeight="1" ht="14.45" r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
@@ -2549,7 +2131,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="15">
+    <row customHeight="1" ht="14.45" r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
@@ -2606,17 +2188,17 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="7.66666666666667"/>
-    <col customWidth="1" max="2" min="2" width="9.555555555555561"/>
-    <col customWidth="1" max="3" min="3" width="19.7777777777778"/>
-    <col customWidth="1" max="4" min="4" width="8.33333333333333"/>
-    <col customWidth="1" max="5" min="5" width="19.2222222222222"/>
-    <col customWidth="1" max="6" min="6" width="50.1111111111111"/>
-    <col customWidth="1" max="7" min="7" width="57.7777777777778"/>
-    <col customWidth="1" max="8" min="8" width="7.66666666666667"/>
-    <col customWidth="1" max="9" min="9" width="9.555555555555561"/>
+    <col customWidth="1" max="1" min="1" width="7.625"/>
+    <col customWidth="1" max="2" min="2" width="9.5"/>
+    <col customWidth="1" max="3" min="3" width="19.75"/>
+    <col customWidth="1" max="4" min="4" width="8.375"/>
+    <col customWidth="1" max="5" min="5" width="19.25"/>
+    <col customWidth="1" max="6" min="6" width="50.125"/>
+    <col customWidth="1" max="7" min="7" width="57.75"/>
+    <col customWidth="1" max="8" min="8" width="7.625"/>
+    <col customWidth="1" max="9" min="9" width="9.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2666,7 +2248,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="2">
+    <row customHeight="1" ht="14.45" r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -2706,7 +2288,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="3">
+    <row customHeight="1" ht="14.45" r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -2746,7 +2328,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="4">
+    <row customHeight="1" ht="14.45" r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -2786,7 +2368,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="5">
+    <row customHeight="1" ht="14.45" r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
@@ -2826,7 +2408,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="6">
+    <row customHeight="1" ht="14.45" r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
@@ -2866,7 +2448,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="7">
+    <row customHeight="1" ht="14.45" r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
@@ -2906,7 +2488,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="8">
+    <row customHeight="1" ht="14.45" r="8">
       <c r="A8" t="n">
         <v>7</v>
       </c>
@@ -2946,7 +2528,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="9">
+    <row customHeight="1" ht="14.45" r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
@@ -2986,7 +2568,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="10">
+    <row customHeight="1" ht="14.45" r="10">
       <c r="A10" t="n">
         <v>9</v>
       </c>
@@ -3026,7 +2608,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="11">
+    <row customHeight="1" ht="14.45" r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
@@ -3066,7 +2648,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="12">
+    <row customHeight="1" ht="14.45" r="12">
       <c r="A12" t="n">
         <v>11</v>
       </c>
@@ -3106,7 +2688,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="13">
+    <row customHeight="1" ht="14.45" r="13">
       <c r="A13" t="n">
         <v>12</v>
       </c>
@@ -3146,7 +2728,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="14">
+    <row customHeight="1" ht="14.45" r="14">
       <c r="A14" t="n">
         <v>13</v>
       </c>
@@ -3186,7 +2768,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="15">
+    <row customHeight="1" ht="14.45" r="15">
       <c r="A15" t="n">
         <v>14</v>
       </c>
@@ -3243,14 +2825,14 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" customHeight="1" defaultColWidth="8.875" defaultRowHeight="13.9"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="26.2222222222222"/>
-    <col customWidth="1" max="5" min="5" width="13.7777777777778"/>
-    <col customWidth="1" max="6" min="6" width="43.3333333333333"/>
-    <col customWidth="1" max="7" min="7" width="24.962962962963"/>
-    <col customWidth="1" max="8" min="8" width="7.17592592592593"/>
-    <col customWidth="1" max="9" min="9" width="12.287037037037"/>
+    <col customWidth="1" max="3" min="3" width="26.25"/>
+    <col customWidth="1" max="5" min="5" width="13.75"/>
+    <col customWidth="1" max="6" min="6" width="43.375"/>
+    <col customWidth="1" max="7" min="7" width="25"/>
+    <col customWidth="1" max="8" min="8" width="7.125"/>
+    <col customWidth="1" max="9" min="9" width="12.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3758,17 +3340,17 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="F4:I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8" outlineLevelRow="6"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="3" min="3" width="20.6666666666667"/>
-    <col customWidth="1" max="4" min="4" width="16.5555555555556"/>
+    <col customWidth="1" max="3" min="3" width="20.625"/>
+    <col customWidth="1" max="4" min="4" width="16.5"/>
     <col customWidth="1" max="5" min="5" width="15"/>
-    <col customWidth="1" max="6" min="6" width="38.7777777777778"/>
-    <col customWidth="1" max="7" min="7" width="28.6666666666667"/>
+    <col customWidth="1" max="6" min="6" width="38.75"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="45.75"/>
     <col customWidth="1" max="8" min="8" width="8"/>
   </cols>
   <sheetData>
@@ -3819,7 +3401,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="2">
+    <row customHeight="1" ht="14.45" r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
@@ -3864,7 +3446,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="3">
+    <row customHeight="1" ht="14.45" r="3">
       <c r="A3" t="n">
         <v>2</v>
       </c>
@@ -3909,7 +3491,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="4">
+    <row customHeight="1" ht="14.45" r="4">
       <c r="A4" t="n">
         <v>3</v>
       </c>
@@ -3949,7 +3531,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="5">
+    <row customHeight="1" ht="14.45" r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
@@ -3989,7 +3571,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="6">
+    <row customHeight="1" ht="14.45" r="6">
       <c r="A6" t="n">
         <v>5</v>
       </c>
@@ -4029,7 +3611,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="7">
+    <row customHeight="1" ht="14.45" r="7">
       <c r="A7" t="n">
         <v>6</v>
       </c>
@@ -4071,6 +3653,7 @@
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
@@ -4086,8 +3669,473 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="25.5"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="16.125"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="57.125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="45.75"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="7.5"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="61.625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>会员为空</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>/member/update</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>{"reg_name": "Mary"}</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"code":1,"msg":"用户id为空"}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>会员为字符串</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>/member/update</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id":"dsadasdas","reg_name": "Mary"}</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"code":2,"msg":"数值参数格式错误"}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>昵称11位</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>/member/update</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"reg_name": "abcdeiurfaq"}</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"code": 2,"msg": "用户昵称长度超过10位"}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>昵称为空</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>/member/update</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id":"dsadasdas"}</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{"code": 1,"msg": "用户名为空"}</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>update</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>修改昵称成功</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>patch</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>/member/update</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>{"member_id":#member_id#,"reg_name": "Mary"}</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{"code": 0,"msg": "OK"}</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>SELECT reg_name FROM  futureloan.member WHERE id=#member_id#;</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="10.5"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="31.75"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="7.5"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="27.25"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="57.125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="38.25"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="7.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>interface</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>result</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>check_sql</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>普通会员信息</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>/member/#member_id#/info</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>管理员信息</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>/member/#member_id#/info</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{"code":0,"msg":"OK"}</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>info</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>普通会员登录无法查看管理员信息</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>/member/#member_id#/info</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{"code":1007,"msg":"无权限访问，请检查参数"}</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>通过</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>